--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -273,6 +273,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="1021"/>
@@ -605,6 +613,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -924,6 +933,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1200,6 +1210,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1377,7 +1388,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:colOff>523873</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -1432,37 +1443,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="14316074" cy="4352924"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="" hidden="0"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11344274" y="1095374"/>
-          <a:ext cx="14316075" cy="4352924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1474,11 +1454,11 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="" hidden="0"/>
+        <xdr:cNvPr id="6" name="" hidden="0"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
@@ -1489,7 +1469,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1510,7 +1490,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="" hidden="0"/>
+        <xdr:cNvPr id="7" name="" hidden="0"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
@@ -1521,7 +1501,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2056,7 +2036,7 @@
     </row>
     <row r="4" ht="14.25">
       <c r="D4">
-        <f>1000+D3</f>
+        <f t="shared" ref="D4:D10" si="0">1000+D3</f>
         <v>2000</v>
       </c>
       <c r="F4">
@@ -2068,7 +2048,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="D5">
-        <f>1000+D4</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="F5">
@@ -2080,7 +2060,7 @@
     </row>
     <row r="6" ht="14.25">
       <c r="D6">
-        <f>1000+D5</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="F6">
@@ -2092,7 +2072,7 @@
     </row>
     <row r="7" ht="14.25">
       <c r="D7">
-        <f>1000+D6</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="F7">
@@ -2104,7 +2084,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="D8">
-        <f>1000+D7</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="F8">
@@ -2116,7 +2096,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="D9">
-        <f>1000+D8</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="F9">
@@ -2128,7 +2108,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="D10">
-        <f>1000+D9</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="F10">
@@ -2193,7 +2173,6 @@
       <c r="K24" t="s">
         <v>9</v>
       </c>
-      <c r="N24"/>
       <c r="O24">
         <v>501498</v>
       </c>
@@ -2212,7 +2191,6 @@
       <c r="F30" t="s">
         <v>2</v>
       </c>
-      <c r="G30"/>
       <c r="H30" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2208,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="D32">
-        <f>1000+D31</f>
+        <f t="shared" ref="D32:D39" si="1">1000+D31</f>
         <v>2000</v>
       </c>
       <c r="F32">
@@ -2242,7 +2220,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="D33">
-        <f>1000+D32</f>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F33">
@@ -2254,7 +2232,7 @@
     </row>
     <row r="34" ht="14.25">
       <c r="D34">
-        <f>1000+D33</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="F34">
@@ -2266,7 +2244,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="D35">
-        <f>1000+D34</f>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F35">
@@ -2278,7 +2256,7 @@
     </row>
     <row r="36" ht="14.25">
       <c r="D36">
-        <f>1000+D35</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="F36">
@@ -2290,7 +2268,7 @@
     </row>
     <row r="37" ht="14.25">
       <c r="D37">
-        <f>1000+D36</f>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="F37">
@@ -2302,7 +2280,7 @@
     </row>
     <row r="38" ht="14.25">
       <c r="D38">
-        <f>1000+D37</f>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="F38">
@@ -2314,7 +2292,7 @@
     </row>
     <row r="39" ht="14.25">
       <c r="D39">
-        <f>1000+D38</f>
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
       <c r="F39">

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Insertion sort</t>
   </si>
@@ -25,6 +25,24 @@
   </si>
   <si>
     <t>CompareCount</t>
+  </si>
+  <si>
+    <t>Twm_sort</t>
+  </si>
+  <si>
+    <t>Copy_c</t>
+  </si>
+  <si>
+    <t>Comp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg for 1000 elems</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Comp</t>
   </si>
   <si>
     <t xml:space="preserve">For 1000 elems</t>
@@ -276,6 +294,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1064,7 +1083,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="6076949" y="4781549"/>
+      <a:off x="5924548" y="5248273"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1137,7 +1156,12 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="-0.0083599999999999994"/>
+          <c:y val="0.041950000000000001"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -1341,7 +1365,549 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="942974" y="7267574"/>
+      <a:off x="10687048" y="5314948"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Copy</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto"/>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AB$5:$AB$13</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$5:$AD$13</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="1087"/>
+        <c:axId val="1088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="14973299" y="3381373"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Count</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto"/>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AB$5:$AB$13</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$5:$AF$13</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="1094"/>
+        <c:axId val="1095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1094"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1094"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="19831049" y="1885949"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1446,15 +2012,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>438148</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:colOff>114297</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1464,7 +2030,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6076949" y="4781549"/>
+        <a:off x="5924548" y="5248273"/>
         <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1477,16 +2043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609597</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76197</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1496,12 +2062,76 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="942974" y="7267574"/>
+        <a:off x="10687048" y="5314948"/>
         <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14973299" y="3381373"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="19831049" y="1885949"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2008,6 +2638,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="6" max="6" width="9.7109375"/>
+    <col bestFit="1" min="8" max="8" width="9.7109375"/>
+  </cols>
   <sheetData>
     <row r="2" ht="14.25">
       <c r="B2" t="s">
@@ -2045,6 +2679,18 @@
       <c r="H4">
         <v>3837338</v>
       </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="D5">
@@ -2057,6 +2703,15 @@
       <c r="H5">
         <v>13315166</v>
       </c>
+      <c r="AB5">
+        <v>1000</v>
+      </c>
+      <c r="AD5">
+        <v>15386</v>
+      </c>
+      <c r="AF5">
+        <v>15692</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="D6">
@@ -2069,6 +2724,16 @@
       <c r="H6">
         <v>32220844</v>
       </c>
+      <c r="AB6">
+        <f>1000+AB5</f>
+        <v>2000</v>
+      </c>
+      <c r="AD6">
+        <v>25372</v>
+      </c>
+      <c r="AF6">
+        <v>25869</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="D7">
@@ -2081,6 +2746,16 @@
       <c r="H7">
         <v>62662186</v>
       </c>
+      <c r="AB7">
+        <f>1000+AB6</f>
+        <v>3000</v>
+      </c>
+      <c r="AD7">
+        <v>39575</v>
+      </c>
+      <c r="AF7">
+        <v>40678</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="D8">
@@ -2093,6 +2768,16 @@
       <c r="H8">
         <v>105107882</v>
       </c>
+      <c r="AB8">
+        <f>1000+AB7</f>
+        <v>4000</v>
+      </c>
+      <c r="AD8">
+        <v>55689</v>
+      </c>
+      <c r="AF8">
+        <v>57058</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="D9">
@@ -2105,6 +2790,16 @@
       <c r="H9">
         <v>170066476</v>
       </c>
+      <c r="AB9">
+        <f>1000+AB8</f>
+        <v>5000</v>
+      </c>
+      <c r="AD9">
+        <v>72425</v>
+      </c>
+      <c r="AF9">
+        <v>74242</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="D10">
@@ -2117,6 +2812,16 @@
       <c r="H10">
         <v>254241358</v>
       </c>
+      <c r="AB10">
+        <f>1000+AB9</f>
+        <v>6000</v>
+      </c>
+      <c r="AD10">
+        <v>77869</v>
+      </c>
+      <c r="AF10">
+        <v>80148</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="D11">
@@ -2129,19 +2834,71 @@
       <c r="H11">
         <v>362117154</v>
       </c>
+      <c r="AB11">
+        <f>1000+AB10</f>
+        <v>7000</v>
+      </c>
+      <c r="AD11">
+        <v>95648</v>
+      </c>
+      <c r="AF11">
+        <v>98082</v>
+      </c>
     </row>
-    <row r="12" ht="14.25"/>
+    <row r="12" ht="14.25">
+      <c r="AB12">
+        <f>1000+AB11</f>
+        <v>8000</v>
+      </c>
+      <c r="AD12">
+        <v>106228</v>
+      </c>
+      <c r="AF12">
+        <v>108900</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="AB13">
+        <f>1000+AB12</f>
+        <v>9000</v>
+      </c>
+      <c r="AD13">
+        <v>128574</v>
+      </c>
+      <c r="AF13">
+        <v>131695</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="Z16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="AB17">
+        <v>16173</v>
+      </c>
+      <c r="AC17">
+        <v>16147</v>
+      </c>
+    </row>
     <row r="19" ht="14.25">
       <c r="K19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="K20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -2157,10 +2914,10 @@
     </row>
     <row r="23" ht="14.25">
       <c r="K23" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N23" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O23" t="s">
         <v>2</v>
@@ -2171,7 +2928,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="K24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O24">
         <v>501498</v>
@@ -2183,7 +2940,7 @@
     <row r="29" ht="14.25"/>
     <row r="30" ht="14.25">
       <c r="B30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
